--- a/biology/Botanique/Reinette_franche/Reinette_franche.xlsx
+++ b/biology/Botanique/Reinette_franche/Reinette_franche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Reinette Franche est une variété de pomme ancienne apparue vers 1500 en Normandie.
 </t>
@@ -511,14 +523,16 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Reinette blonde,
 Reinette blanche,
 Reinette commune,
 Reinette de Normandie.
 Französische Edel Renette,
-Edel Renette[1].</t>
+Edel Renette.</t>
         </is>
       </c>
     </row>
@@ -546,14 +560,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une pomme de taille moyenne et de forme variable conique ou aplatie.
 La peau épaisse est citron clair, souvent lavé d'un léger rouge à l'insolation, granité et un peu taché de brun.
 La chair est de couleur blanc jaunâtre, d'abord ferme et croquante puis friable, à la saveur épicée et au parfum agréable représentant le type par excellence de la Pomme Reinette.
 Les graines sont brun clair.
 La pomme est mature à partir de décembre et tient jusqu'au printemps.
-Excellente pomme à dessert comme à cuire[1].
+Excellente pomme à dessert comme à cuire.
 </t>
         </is>
       </c>
@@ -582,12 +598,14 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre à l'écorce vert olive est assez vigoureux et fertile.
 Cette variété délicate est sujette au chancre nectrien mais résistante à la tavelure du pommier, elle ne convient en tige que dans les sols riches, sains et pas trop frais.
 Il est préférable de la cultiver en petites formes, greffé sur porte-greffe nain on devra lui donner une taille longue et éviter les blessures et les mutilations pour éviter l'apparition de chancre.
-En haute tige, il vaut mieux la greffer en tête[1].
+En haute tige, il vaut mieux la greffer en tête.
 Floraison à mi-saison, elle est pollinisée par Calville blanc d'hiver, Cornish Gilliflower, Esopus Spitzenburg, Fuji, Golden Delicious, Grenadier, James Grieve, Kidd's Orange Red, Pinova, Red Delicious, Winter Banana.
 </t>
         </is>
